--- a/newwisedata/testssh_ans/mcmc3_D.xlsx
+++ b/newwisedata/testssh_ans/mcmc3_D.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,17 +518,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2010 AJ30</t>
+          <t>2009 UX17</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>123.4</v>
+        <v>236.4</v>
       </c>
       <c r="D5" t="n">
-        <v>111</v>
+        <v>390</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -537,17 +537,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2010 BH115</t>
+          <t>2010 AJ30</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>66.09999999999999</v>
+        <v>123.4</v>
       </c>
       <c r="D6" t="n">
-        <v>2938</v>
+        <v>111</v>
       </c>
       <c r="E6" t="n">
-        <v>470</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2010 CA55</t>
+          <t>2010 BH115</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>264.6</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>352</v>
+        <v>2938</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8">
@@ -575,17 +575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2010 CC55</t>
+          <t>2010 CA55</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>164.6</v>
+        <v>264.6</v>
       </c>
       <c r="D8" t="n">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -594,17 +594,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2010 CN141</t>
+          <t>2010 CC55</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>196.6</v>
+        <v>164.6</v>
       </c>
       <c r="D9" t="n">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -613,17 +613,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2010 CO1</t>
+          <t>2010 CN141</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>274.3</v>
+        <v>196.6</v>
       </c>
       <c r="D10" t="n">
-        <v>382</v>
+        <v>254</v>
       </c>
       <c r="E10" t="n">
-        <v>132</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -632,17 +632,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2010 DG77</t>
+          <t>2010 CO1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>234.6</v>
+        <v>274.3</v>
       </c>
       <c r="D11" t="n">
-        <v>315</v>
+        <v>382</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -651,17 +651,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2010 DH77</t>
+          <t>2010 DG77</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>313.2</v>
+        <v>234.6</v>
       </c>
       <c r="D12" t="n">
-        <v>628</v>
+        <v>315</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -670,17 +670,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2010 EX11</t>
+          <t>2010 DH77</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>70.40000000000001</v>
+        <v>313.2</v>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>628</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -689,14 +689,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2010 FC81</t>
+          <t>2010 EX11</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>271.4</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>402</v>
+        <v>40</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
@@ -708,17 +708,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2010 FH81</t>
+          <t>2010 FA81</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>204.3</v>
+        <v>152.6</v>
       </c>
       <c r="D15" t="n">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -727,17 +727,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2010 GP67</t>
+          <t>2010 FC81</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>157.7</v>
+        <v>271.4</v>
       </c>
       <c r="D16" t="n">
-        <v>180</v>
+        <v>402</v>
       </c>
       <c r="E16" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -746,17 +746,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2010 GS7</t>
+          <t>2010 FH81</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>209.6</v>
+        <v>204.3</v>
       </c>
       <c r="D17" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -765,17 +765,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2010 HW81</t>
+          <t>2010 GP67</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>319.9</v>
+        <v>157.7</v>
       </c>
       <c r="D18" t="n">
-        <v>352</v>
+        <v>180</v>
       </c>
       <c r="E18" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -784,17 +784,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2010 HX107</t>
+          <t>2010 GS7</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>75.90000000000001</v>
+        <v>209.6</v>
       </c>
       <c r="D19" t="n">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -803,17 +803,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2010 HZ104</t>
+          <t>2010 HW81</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>112.9</v>
+        <v>319.9</v>
       </c>
       <c r="D20" t="n">
-        <v>140</v>
+        <v>352</v>
       </c>
       <c r="E20" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
@@ -822,17 +822,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2010 JN71</t>
+          <t>2010 HX107</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>212.1</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -841,17 +841,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2010 JX16</t>
+          <t>2010 HZ104</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>800</v>
+        <v>112.9</v>
       </c>
       <c r="D22" t="n">
-        <v>2877</v>
+        <v>140</v>
       </c>
       <c r="E22" t="n">
-        <v>207</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -860,17 +860,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2010 KP10</t>
+          <t>2010 JN71</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>138.3</v>
+        <v>212.1</v>
       </c>
       <c r="D23" t="n">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -879,17 +879,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2010 KU7</t>
+          <t>2010 JX16</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>130.9</v>
+        <v>1181.2</v>
       </c>
       <c r="D24" t="n">
-        <v>102</v>
+        <v>2877</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
@@ -898,17 +898,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2010 LH14</t>
+          <t>2010 KP10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>151.1</v>
+        <v>138.3</v>
       </c>
       <c r="D25" t="n">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E25" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -917,17 +917,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2010 LJ68</t>
+          <t>2010 KU7</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>220.6</v>
+        <v>130.9</v>
       </c>
       <c r="D26" t="n">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="E26" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -936,17 +936,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2010 LK68</t>
+          <t>2010 LH14</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>181.8</v>
+        <v>151.1</v>
       </c>
       <c r="D27" t="n">
-        <v>236</v>
+        <v>101</v>
       </c>
       <c r="E27" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -955,17 +955,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2010 LL68</t>
+          <t>2010 LJ68</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>170.6</v>
+        <v>220.6</v>
       </c>
       <c r="D28" t="n">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="E28" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
@@ -974,17 +974,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2010 LV108</t>
+          <t>2010 LK68</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>201.6</v>
+        <v>181.8</v>
       </c>
       <c r="D29" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -993,17 +993,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2010 NS36</t>
+          <t>2010 LL68</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>71.40000000000001</v>
+        <v>170.6</v>
       </c>
       <c r="D30" t="n">
-        <v>3107</v>
+        <v>153</v>
       </c>
       <c r="E30" t="n">
-        <v>1060</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -1012,17 +1012,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2010 NY65</t>
+          <t>2010 LV108</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>209.9</v>
+        <v>201.6</v>
       </c>
       <c r="D31" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2010 OH126</t>
+          <t>2010 NS36</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>208</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>218</v>
+        <v>3107</v>
       </c>
       <c r="E32" t="n">
-        <v>12</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="33">
@@ -1050,17 +1050,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2010 PU66</t>
+          <t>2010 NY65</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>212</v>
+        <v>209.9</v>
       </c>
       <c r="D33" t="n">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="E33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1069,17 +1069,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2010 PW58</t>
+          <t>2010 OH126</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>194.9</v>
+        <v>208</v>
       </c>
       <c r="D34" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2010 XP69</t>
+          <t>2010 PU66</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="D35" t="n">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="E35" t="n">
-        <v>105</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2014 FD7</t>
+          <t>2010 PW58</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>349.9</v>
+        <v>194.9</v>
       </c>
       <c r="D36" t="n">
-        <v>360</v>
+        <v>213</v>
       </c>
       <c r="E36" t="n">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1126,14 +1126,18 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2015 TF</t>
+          <t>2010 XP69</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>311.5</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+        <v>162</v>
+      </c>
+      <c r="D37" t="n">
+        <v>273</v>
+      </c>
+      <c r="E37" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1141,16 +1145,50 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>2014 FD7</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>349.9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>360</v>
+      </c>
+      <c r="E38" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2015 TF</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>2016 UH101</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C40" t="n">
         <v>185.3</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D40" t="n">
         <v>67</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E40" t="n">
         <v>28</v>
       </c>
     </row>
